--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail5 Features.xlsx
@@ -2367,7 +2367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2378,29 +2378,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2421,115 +2419,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2546,72 +2534,66 @@
         <v>2.184453308149803e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.4962141385914</v>
+        <v>1.352442336739288e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7.260120091961644</v>
+        <v>3.275610730958029e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.352442336739288e-06</v>
+        <v>0.08961925942296357</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.275610730958029e-06</v>
+        <v>0.2606088047579476</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08961925942296357</v>
+        <v>0.07575013282517119</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2606088047579476</v>
+        <v>1.627446358880996</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07575013282517119</v>
+        <v>1.546969649737504</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.540264542063748</v>
+        <v>4.196193805944699</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.546969649737504</v>
+        <v>1.045270239220326e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.196193805944699</v>
+        <v>19703061.62883608</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.045270239220326e-14</v>
+        <v>5.610342958757534e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>19703061.62883608</v>
+        <v>4.057850259794632</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.610342958757534e-06</v>
+        <v>0.0001561409453164348</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>4.057850259794632</v>
+        <v>10.36784181839894</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001561409453164348</v>
+        <v>1.089849238646865</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.36784181839894</v>
+        <v>0.01678392497377562</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.089849238646865</v>
+        <v>2.587439026573885</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01678392497377562</v>
+        <v>0.9488303195604081</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.587439026573885</v>
+        <v>1.846569936312109</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9488303195604081</v>
+        <v>5</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.846569936312109</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1628319626944932</v>
       </c>
     </row>
@@ -2626,72 +2608,66 @@
         <v>1.774972945347913e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.110022489289732</v>
+        <v>1.037818683962519e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>5.325409662997021</v>
+        <v>3.292781641741633e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.037818683962519e-06</v>
+        <v>0.08568367915193915</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.292781641741633e-06</v>
+        <v>0.2363883674256683</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08568367915193915</v>
+        <v>0.06308445909448354</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2363883674256683</v>
+        <v>1.552156091762392</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06308445909448354</v>
+        <v>1.510277234584408</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.478834793085136</v>
+        <v>4.050434232786087</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.510277234584408</v>
+        <v>1.125807445185801e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.050434232786087</v>
+        <v>20135120.96517312</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.125807445185801e-14</v>
+        <v>5.036137680605998e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>20135120.96517312</v>
+        <v>4.564283402447292</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.036137680605998e-06</v>
+        <v>0.0001484173591564376</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>4.564283402447292</v>
+        <v>8.775059195320468</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001484173591564376</v>
+        <v>1.215095727833462</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.775059195320468</v>
+        <v>0.01142838360392581</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.215095727833462</v>
+        <v>2.816734706424721</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01142838360392581</v>
+        <v>0.9433488931644209</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.816734706424721</v>
+        <v>1.820552785564306</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9433488931644209</v>
+        <v>5</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.820552785564306</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.160548570256724</v>
       </c>
     </row>
@@ -2706,72 +2682,66 @@
         <v>1.496479126415722e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.779210398537024</v>
+        <v>8.315394756789801e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>3.990904330144904</v>
+        <v>3.306545660810051e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.315394756789801e-07</v>
+        <v>0.08359905917129334</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.306545660810051e-06</v>
+        <v>0.2264132571511081</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.08359905917129334</v>
+        <v>0.05816937642677609</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2264132571511081</v>
+        <v>1.482205936035536</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05816937642677609</v>
+        <v>1.401996077732288</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.40094501085291</v>
+        <v>4.065238532709442</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.401996077732288</v>
+        <v>1.742809507056416e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.065238532709442</v>
+        <v>13522055.12863457</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.742809507056416e-14</v>
+        <v>7.139738010727036e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>13522055.12863457</v>
+        <v>3.186657033859124</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.139738010727036e-06</v>
+        <v>0.0001654730862115336</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3.186657033859124</v>
+        <v>7.912852429921491</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001654730862115336</v>
+        <v>1.641612709839149</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.912852429921491</v>
+        <v>0.01036080499778803</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.641612709839149</v>
+        <v>2.895848685012794</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01036080499778803</v>
+        <v>0.9368406903728013</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.895848685012794</v>
+        <v>1.947629512887385</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9368406903728013</v>
+        <v>5</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.947629512887385</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1457589431461713</v>
       </c>
     </row>
@@ -2786,72 +2756,66 @@
         <v>1.297742943890387e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.480976666529666</v>
+        <v>6.938629992498789e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3.040289622690308</v>
+        <v>3.317992367756129e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.938629992498789e-07</v>
+        <v>0.08077812165036148</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.317992367756129e-06</v>
+        <v>0.2284446795373355</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.08077812165036148</v>
+        <v>0.05866367854133673</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2284446795373355</v>
+        <v>1.446310016580349</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05866367854133673</v>
+        <v>1.38765122586364</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.369243868928763</v>
+        <v>3.641641711653978</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.38765122586364</v>
+        <v>2.171838649709552e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.641641711653978</v>
+        <v>11163590.22474328</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.171838649709552e-14</v>
+        <v>8.454631322620865e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>11163590.22474328</v>
+        <v>2.706670134449682</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.454631322620865e-06</v>
+        <v>0.0001810579572413609</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2.706670134449682</v>
+        <v>8.874857623329399</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001810579572413609</v>
+        <v>1.587064988259345</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.874857623329399</v>
+        <v>0.01426068559989212</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.587064988259345</v>
+        <v>2.862177054101767</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01426068559989212</v>
+        <v>0.9318114975237815</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.862177054101767</v>
+        <v>1.909362060741146</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9318114975237815</v>
+        <v>5</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.909362060741146</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1383320451407992</v>
       </c>
     </row>
@@ -2866,72 +2830,66 @@
         <v>1.14641749774872e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.185672390013949</v>
+        <v>5.984387398565943e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.239691066337587</v>
+        <v>3.327648091282799e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.984387398565943e-07</v>
+        <v>0.07767279974160479</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.327648091282799e-06</v>
+        <v>0.2398444377095486</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.07767279974160479</v>
+        <v>0.0635267217417339</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2398444377095486</v>
+        <v>1.421967851875036</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0635267217417339</v>
+        <v>1.375583638373451</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.344098473029921</v>
+        <v>3.674459974552339</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.375583638373451</v>
+        <v>2.133216553777108e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.674459974552339</v>
+        <v>11469711.95105421</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.133216553777108e-14</v>
+        <v>8.075089490045402e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>11469711.95105421</v>
+        <v>2.806337939271316</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.075089490045402e-06</v>
+        <v>0.0001521105175729165</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2.806337939271316</v>
+        <v>10.12482958292689</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001521105175729165</v>
+        <v>1.192080854790329</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.12482958292689</v>
+        <v>0.01559317985733743</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.192080854790329</v>
+        <v>2.870205439766533</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01559317985733743</v>
+        <v>0.9288067743911387</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.870205439766533</v>
+        <v>1.938000930833676</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9288067743911387</v>
+        <v>5</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.938000930833676</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1564931017363897</v>
       </c>
     </row>
@@ -2946,72 +2904,66 @@
         <v>1.02490477352756e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.8679232618407668</v>
+        <v>5.265375681727738e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.404883760005954</v>
+        <v>3.335907826789446e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.265375681727738e-07</v>
+        <v>0.07484148979821356</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.335907826789446e-06</v>
+        <v>0.2562765873477872</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.07484148979821356</v>
+        <v>0.07125355924547273</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2562765873477872</v>
+        <v>1.404302963171554</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.07125355924547273</v>
+        <v>1.415505357326049</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.328917394493265</v>
+        <v>3.732235561744866</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.415505357326049</v>
+        <v>2.067682699271849e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.732235561744866</v>
+        <v>11464891.4533327</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.067682699271849e-14</v>
+        <v>7.877551916549571e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>11464891.4533327</v>
+        <v>2.717839389307428</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>7.877551916549571e-06</v>
+        <v>0.0001372058470453583</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2.717839389307428</v>
+        <v>9.88898542133016</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001372058470453583</v>
+        <v>1.131591496372445</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.88898542133016</v>
+        <v>0.01341763867585274</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.131591496372445</v>
+        <v>2.792264184594217</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01341763867585274</v>
+        <v>0.9263221580221752</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.792264184594217</v>
+        <v>1.955983167478419</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9263221580221752</v>
+        <v>8</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.955983167478419</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1756895585293226</v>
       </c>
     </row>
@@ -3388,7 +3340,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.37163996677158</v>
+        <v>1.345698887752391</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.889161709015686</v>
@@ -3477,7 +3429,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.348170411641812</v>
+        <v>1.325296510266756</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.867262048866772</v>
@@ -3566,7 +3518,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.363493805982808</v>
+        <v>1.337780247553468</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.843416432619422</v>
@@ -3655,7 +3607,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.37963210701793</v>
+        <v>1.346054357188163</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.892758530116134</v>
@@ -3744,7 +3696,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.361476050587246</v>
+        <v>1.330911746357304</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.906616133243634</v>
@@ -3833,7 +3785,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.358436493327282</v>
+        <v>1.326258234553776</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.889836775875476</v>
@@ -3922,7 +3874,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.369813258337397</v>
+        <v>1.33585350006906</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.873198085671407</v>
@@ -4011,7 +3963,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.381481138660619</v>
+        <v>1.343561318014174</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.879577749026943</v>
@@ -4100,7 +4052,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.383856394937181</v>
+        <v>1.349369869076518</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.882761788424893</v>
@@ -4189,7 +4141,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.403713553512332</v>
+        <v>1.370425880638755</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.878153165739412</v>
@@ -4278,7 +4230,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.422204562297072</v>
+        <v>1.398619122795558</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.254837157494104</v>
@@ -4367,7 +4319,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.433086639130537</v>
+        <v>1.405934820424373</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.2458382281858</v>
@@ -4456,7 +4408,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.453930513171806</v>
+        <v>1.417464993512097</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.513629844051246</v>
@@ -4545,7 +4497,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.455024233190253</v>
+        <v>1.418282950320579</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.350658370170867</v>
@@ -4634,7 +4586,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.494207622956659</v>
+        <v>1.450222724573861</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.172273788111955</v>
@@ -4723,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.515848067752471</v>
+        <v>1.463796765407081</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.162275454437747</v>
@@ -4812,7 +4764,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.570461838467784</v>
+        <v>1.502705883053271</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.47858353209421</v>
@@ -4901,7 +4853,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.572963443145504</v>
+        <v>1.50841386793016</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.374723944666314</v>
@@ -4990,7 +4942,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.61232295257425</v>
+        <v>1.539771093776285</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.482029813783216</v>
@@ -5079,7 +5031,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.62263809373029</v>
+        <v>1.547298295293958</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.478649553627097</v>
@@ -5168,7 +5120,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.622199359197877</v>
+        <v>1.543944840497321</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.515973157220667</v>
@@ -5257,7 +5209,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.629823633686606</v>
+        <v>1.546259092419473</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.297786068576707</v>
@@ -5346,7 +5298,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.66807412988699</v>
+        <v>1.569159825000808</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.276170970589898</v>
@@ -5435,7 +5387,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.662769256249644</v>
+        <v>1.561217731805165</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.435088238703883</v>
@@ -5524,7 +5476,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.632026850915621</v>
+        <v>1.531603524275908</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.571662771152359</v>
@@ -5613,7 +5565,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.62594894576221</v>
+        <v>1.522507212742554</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.586358574380281</v>
@@ -5702,7 +5654,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.626007442247187</v>
+        <v>1.525104058588979</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.482514210781389</v>
@@ -5791,7 +5743,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.620689647230579</v>
+        <v>1.527275055070234</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.358524016369196</v>
@@ -5880,7 +5832,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.619648420429769</v>
+        <v>1.526478230290614</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.351303579399437</v>
@@ -5969,7 +5921,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.612818151753297</v>
+        <v>1.525533884410339</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.361736463431301</v>
@@ -6058,7 +6010,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.614075930928579</v>
+        <v>1.531102799960566</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.297820278279458</v>
@@ -6147,7 +6099,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.609188045283699</v>
+        <v>1.526073556915297</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.424606235792909</v>
@@ -6236,7 +6188,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.609210777404394</v>
+        <v>1.522192112172811</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.268227432272957</v>
@@ -6325,7 +6277,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.55998655044411</v>
+        <v>1.478614005711619</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.18818406222811</v>
@@ -6414,7 +6366,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.551476328046528</v>
+        <v>1.476240417256798</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.235801731313291</v>
@@ -6503,7 +6455,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.553354260336785</v>
+        <v>1.475037462749997</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.283271825012245</v>
@@ -6592,7 +6544,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.533227180587502</v>
+        <v>1.44824417308254</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.389563030155479</v>
@@ -6681,7 +6633,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.523230150103686</v>
+        <v>1.449826665843716</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.296950731726676</v>
@@ -6770,7 +6722,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.546394119475134</v>
+        <v>1.46849519504004</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.311255632242547</v>
@@ -6859,7 +6811,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.52687006172717</v>
+        <v>1.456224430598627</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.351826401809938</v>
@@ -6948,7 +6900,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.521338350378433</v>
+        <v>1.449288148506834</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.405199546634313</v>
@@ -7037,7 +6989,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.523392289182361</v>
+        <v>1.444583208255125</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.270557244802549</v>
@@ -7126,7 +7078,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.551054279114238</v>
+        <v>1.45552994692388</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.366829641713169</v>
@@ -7215,7 +7167,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.536237891765465</v>
+        <v>1.442020108335274</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.293894434284167</v>
@@ -7304,7 +7256,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.520927759008658</v>
+        <v>1.434594558435578</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.286072463971819</v>
@@ -7393,7 +7345,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.519722455304075</v>
+        <v>1.431098589440848</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.247013140391485</v>
@@ -7482,7 +7434,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.494000207704726</v>
+        <v>1.417908425192317</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.334032787372797</v>
@@ -7571,7 +7523,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.497686332080816</v>
+        <v>1.422914011782304</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.213712307314386</v>
@@ -7660,7 +7612,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.53543061281725</v>
+        <v>1.455658409281189</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.432240875251849</v>
@@ -7749,7 +7701,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.537856413676253</v>
+        <v>1.455690905421937</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.44224085064766</v>
@@ -7838,7 +7790,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.527805430155798</v>
+        <v>1.440116487594743</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.500807089360721</v>
@@ -8124,7 +8076,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.258476669165132</v>
+        <v>1.243471574569645</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.837644981633687</v>
@@ -8213,7 +8165,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.229420338219773</v>
+        <v>1.213215385179099</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.923974510619976</v>
@@ -8302,7 +8254,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.247337971485446</v>
+        <v>1.23076095586585</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.643981046991086</v>
@@ -8391,7 +8343,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.282567488238137</v>
+        <v>1.263629865560814</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.084280200453832</v>
@@ -8480,7 +8432,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.278442119367787</v>
+        <v>1.259324529925563</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.046860679279461</v>
@@ -8569,7 +8521,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.280486081334915</v>
+        <v>1.259410381870886</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.115950769317836</v>
@@ -8658,7 +8610,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.282615860699902</v>
+        <v>1.261779593496199</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.100387517433444</v>
@@ -8747,7 +8699,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.285473869612488</v>
+        <v>1.264071269393119</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.109112205965092</v>
@@ -8836,7 +8788,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.286783491554455</v>
+        <v>1.267092756845717</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.062927062431075</v>
@@ -8925,7 +8877,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.291609115687953</v>
+        <v>1.268934084346806</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.018716704398026</v>
@@ -9014,7 +8966,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.292289866951227</v>
+        <v>1.272773270245099</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.011794434037482</v>
@@ -9103,7 +9055,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.282116353363494</v>
+        <v>1.259123156783756</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.965912103658528</v>
@@ -9192,7 +9144,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.299776575591657</v>
+        <v>1.282301482928708</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.050702132119684</v>
@@ -9281,7 +9233,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.299960026692498</v>
+        <v>1.279877648895945</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.00237621887121</v>
@@ -9370,7 +9322,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.311083449884945</v>
+        <v>1.289457070885431</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.012813354337574</v>
@@ -9459,7 +9411,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.350612405172829</v>
+        <v>1.315016703074265</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.850215455349487</v>
@@ -9548,7 +9500,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.420038885102421</v>
+        <v>1.37763784778998</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.104413002336834</v>
@@ -9637,7 +9589,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.423710225388922</v>
+        <v>1.377052324234658</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.381597268869081</v>
@@ -9726,7 +9678,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.465185724509875</v>
+        <v>1.408479203618996</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.195494597053029</v>
@@ -9815,7 +9767,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.479361966899976</v>
+        <v>1.425172030370538</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.398602733132409</v>
@@ -9904,7 +9856,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.473850920312595</v>
+        <v>1.415235055467104</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.369567043813285</v>
@@ -9993,7 +9945,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.48878430590256</v>
+        <v>1.423533127912092</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.271242913419673</v>
@@ -10082,7 +10034,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.507217655266174</v>
+        <v>1.430150873396191</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.142057825287428</v>
@@ -10171,7 +10123,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.510201427121529</v>
+        <v>1.436332764598179</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.371383355685362</v>
@@ -10260,7 +10212,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.494991804396858</v>
+        <v>1.422486490286609</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.376879656331095</v>
@@ -10349,7 +10301,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.493157942082818</v>
+        <v>1.423912274917821</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.375073937159231</v>
@@ -10438,7 +10390,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.536136414772536</v>
+        <v>1.453480278247264</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.068171088185198</v>
@@ -10527,7 +10479,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.526399808532875</v>
+        <v>1.439688011113869</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.595048245227449</v>
@@ -10616,7 +10568,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.532871959200229</v>
+        <v>1.446538390050937</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.362560234690827</v>
@@ -10705,7 +10657,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.527800787594686</v>
+        <v>1.450750898956174</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.465297687934556</v>
@@ -10794,7 +10746,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.521736191027554</v>
+        <v>1.453256960041737</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.568531664680097</v>
@@ -10883,7 +10835,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.521490936761766</v>
+        <v>1.455225635309329</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.563758906654532</v>
@@ -10972,7 +10924,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.528402108315857</v>
+        <v>1.466557944774166</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.450375010868611</v>
@@ -11061,7 +11013,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.494631812583165</v>
+        <v>1.431785270128645</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.213909699401809</v>
@@ -11150,7 +11102,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.480669455720314</v>
+        <v>1.415927620321648</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.424341772238526</v>
@@ -11239,7 +11191,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.489952689943754</v>
+        <v>1.430754278715519</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.53408823285258</v>
@@ -11328,7 +11280,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.480950688835199</v>
+        <v>1.414402387431731</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.629905576928825</v>
@@ -11417,7 +11369,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.472569605079786</v>
+        <v>1.414140966451753</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.393155038676676</v>
@@ -11506,7 +11458,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.489387705835993</v>
+        <v>1.429164467586018</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.336945461080105</v>
@@ -11595,7 +11547,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.479635550213221</v>
+        <v>1.420276764729912</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.464465539710345</v>
@@ -11684,7 +11636,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.493582068389262</v>
+        <v>1.431743428411843</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.444229110572301</v>
@@ -11773,7 +11725,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.504183880043628</v>
+        <v>1.439015659847923</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.300937301880674</v>
@@ -11862,7 +11814,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.514153812052354</v>
+        <v>1.439809562187748</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.445315181408445</v>
@@ -11951,7 +11903,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.502535373458015</v>
+        <v>1.431411012696391</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.386973142303107</v>
@@ -12040,7 +11992,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.49716015082333</v>
+        <v>1.429126140522666</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.353900971021539</v>
@@ -12129,7 +12081,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.481905737336452</v>
+        <v>1.423360552640334</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.496579758186857</v>
@@ -12218,7 +12170,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.463732762075555</v>
+        <v>1.411705230873253</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.439620241467538</v>
@@ -12307,7 +12259,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.482639071580593</v>
+        <v>1.435482018528401</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.24700893436</v>
@@ -12396,7 +12348,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.502520666461619</v>
+        <v>1.459402223492675</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.338664320413095</v>
@@ -12485,7 +12437,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.507160929188797</v>
+        <v>1.459021528699507</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.496731076060346</v>
@@ -12574,7 +12526,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.498242780911788</v>
+        <v>1.445595350551037</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.529625060895372</v>
@@ -12860,7 +12812,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.689207171622853</v>
+        <v>1.605985425213453</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.884875771522167</v>
@@ -12949,7 +12901,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.685554490631107</v>
+        <v>1.602838672592053</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.876167655741597</v>
@@ -13038,7 +12990,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.682547385251756</v>
+        <v>1.600212126582575</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.948438170032776</v>
@@ -13127,7 +13079,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.683679540881715</v>
+        <v>1.596934517069018</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.918381104105975</v>
@@ -13216,7 +13168,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.679028621267532</v>
+        <v>1.58840865094676</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.893243039705157</v>
@@ -13305,7 +13257,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.675818880054387</v>
+        <v>1.58029926196592</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.876156398969157</v>
@@ -13394,7 +13346,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.669573470840009</v>
+        <v>1.574060513280171</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.921734008447387</v>
@@ -13483,7 +13435,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.669798320889496</v>
+        <v>1.576059358647039</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.861336123353789</v>
@@ -13572,7 +13524,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.668531950215255</v>
+        <v>1.569854077963987</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.92149801534902</v>
@@ -13661,7 +13613,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.672065921676389</v>
+        <v>1.569249328308656</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.89469152949289</v>
@@ -13750,7 +13702,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.686000896477589</v>
+        <v>1.592487289433539</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.098567292914578</v>
@@ -13839,7 +13791,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.670468858191284</v>
+        <v>1.575974698565951</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.06567945751264</v>
@@ -13928,7 +13880,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.674336062582815</v>
+        <v>1.577069569915128</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.240619768928653</v>
@@ -14017,7 +13969,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.663927593518395</v>
+        <v>1.554707067504103</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.193911233632631</v>
@@ -14106,7 +14058,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.662741284687629</v>
+        <v>1.55406973579029</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.334462121072316</v>
@@ -14195,7 +14147,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.65858153413558</v>
+        <v>1.541641742054264</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.084045769580126</v>
@@ -14284,7 +14236,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.650975877977606</v>
+        <v>1.531170534854546</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.473966501985688</v>
@@ -14373,7 +14325,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.654978320677387</v>
+        <v>1.537828507059386</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.211392697398101</v>
@@ -14462,7 +14414,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.669212771713889</v>
+        <v>1.549140116402788</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.216856472261572</v>
@@ -14551,7 +14503,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.678144287365774</v>
+        <v>1.563351191021211</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.429048770687781</v>
@@ -14640,7 +14592,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.67473825883939</v>
+        <v>1.559246958164962</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.624271929469413</v>
@@ -14729,7 +14681,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.684232212587014</v>
+        <v>1.56328439801038</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.084721942791391</v>
@@ -14818,7 +14770,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.682552363718771</v>
+        <v>1.558657906453405</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.168493560922265</v>
@@ -14907,7 +14859,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.691753018962985</v>
+        <v>1.568931158847155</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.496340113535902</v>
@@ -14996,7 +14948,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.685834174561356</v>
+        <v>1.557986806632114</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.337882012869477</v>
@@ -15085,7 +15037,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.684607293210781</v>
+        <v>1.557856861847206</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.037035844138261</v>
@@ -15174,7 +15126,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.687423759037276</v>
+        <v>1.560801338352938</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.330712754461947</v>
@@ -15263,7 +15215,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.678383206578535</v>
+        <v>1.546738892926961</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.345937797786454</v>
@@ -15352,7 +15304,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.678310917977561</v>
+        <v>1.550287962049999</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.43147371212524</v>
@@ -15441,7 +15393,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.68520198619117</v>
+        <v>1.563791730971323</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.418741208123527</v>
@@ -15530,7 +15482,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.695194191746423</v>
+        <v>1.573895996287166</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.888532986297668</v>
@@ -15619,7 +15571,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.700256579507948</v>
+        <v>1.577349710451271</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.086292053488012</v>
@@ -15708,7 +15660,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.702615148689664</v>
+        <v>1.570312882487568</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.142190869406905</v>
@@ -15797,7 +15749,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.683709717663048</v>
+        <v>1.552409803386308</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.11261020076936</v>
@@ -15886,7 +15838,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.681617931545399</v>
+        <v>1.545972863405632</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.240745789162693</v>
@@ -15975,7 +15927,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.684738444436707</v>
+        <v>1.552305693541126</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.372733573780592</v>
@@ -16064,7 +16016,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.691380505020888</v>
+        <v>1.562608189930311</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.408957482545348</v>
@@ -16153,7 +16105,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.686379203132072</v>
+        <v>1.556774951392446</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.254523742806997</v>
@@ -16242,7 +16194,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.675040274908409</v>
+        <v>1.551646319693823</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.235135850156661</v>
@@ -16331,7 +16283,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.678130392918401</v>
+        <v>1.564580406829651</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.7325304677125</v>
@@ -16420,7 +16372,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.669201349028065</v>
+        <v>1.556320231869922</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.662164644615513</v>
@@ -16509,7 +16461,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.676581018569877</v>
+        <v>1.559597776799179</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.191822318807181</v>
@@ -16598,7 +16550,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.681341464364665</v>
+        <v>1.557137439177113</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.937126612846986</v>
@@ -16687,7 +16639,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.679216808218821</v>
+        <v>1.556112359069257</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.712134344599299</v>
@@ -16776,7 +16728,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.666027172019557</v>
+        <v>1.54411947290103</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.944426019984205</v>
@@ -16865,7 +16817,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.670891388963787</v>
+        <v>1.547715237523287</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.6121132596282</v>
@@ -16954,7 +16906,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.677009901363333</v>
+        <v>1.557687269000448</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.543558976035202</v>
@@ -17043,7 +16995,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.679287102574784</v>
+        <v>1.570541141067032</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.65425408830121</v>
@@ -17132,7 +17084,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.69006955213629</v>
+        <v>1.584155555941392</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.569387545073385</v>
@@ -17221,7 +17173,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.690380381838721</v>
+        <v>1.583899993107451</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.816732210054296</v>
@@ -17310,7 +17262,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.683474716559598</v>
+        <v>1.56656528885792</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.693486638402133</v>
@@ -17596,7 +17548,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.689988388615428</v>
+        <v>1.591298310711758</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.838859070682149</v>
@@ -17685,7 +17637,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.689322035015367</v>
+        <v>1.593917082388088</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.847353482787861</v>
@@ -17774,7 +17726,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.686661835265137</v>
+        <v>1.589400146344926</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.854823055360373</v>
@@ -17863,7 +17815,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.678604317906531</v>
+        <v>1.580475533723326</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.846483858737725</v>
@@ -17952,7 +17904,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.675907662557821</v>
+        <v>1.575624203710188</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.825558202166423</v>
@@ -18041,7 +17993,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.676090668731725</v>
+        <v>1.575043816266975</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.829187636830624</v>
@@ -18130,7 +18082,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.66439527548725</v>
+        <v>1.559512014628299</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.815912918671929</v>
@@ -18219,7 +18171,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.660180278925379</v>
+        <v>1.561145731778722</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.804036217930372</v>
@@ -18308,7 +18260,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.655610067809283</v>
+        <v>1.550991361280802</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.791814288529133</v>
@@ -18397,7 +18349,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.654658998833359</v>
+        <v>1.558702027765213</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.787699661057144</v>
@@ -18486,7 +18438,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.668421569087362</v>
+        <v>1.580905563360562</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.570220463718737</v>
@@ -18575,7 +18527,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.661163052715691</v>
+        <v>1.570243293014016</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.324179769332812</v>
@@ -18664,7 +18616,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.661615781693881</v>
+        <v>1.561685604029754</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.163546134211481</v>
@@ -18753,7 +18705,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.648715253216035</v>
+        <v>1.538390285462605</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.430493868395693</v>
@@ -18842,7 +18794,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.644253202163831</v>
+        <v>1.532872191851281</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.443793588005503</v>
@@ -18931,7 +18883,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.63621459145419</v>
+        <v>1.528199776765903</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.185954532889275</v>
@@ -19020,7 +18972,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.632310021509866</v>
+        <v>1.520624684477078</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.042353795937256</v>
@@ -19109,7 +19061,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.646259074206634</v>
+        <v>1.531975746571053</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.283430933082265</v>
@@ -19198,7 +19150,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.660031746593593</v>
+        <v>1.541681363799664</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.112503260743892</v>
@@ -19287,7 +19239,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.663555794695161</v>
+        <v>1.550116518734075</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.234511785192964</v>
@@ -19376,7 +19328,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.667056104628316</v>
+        <v>1.552787572755239</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.936949840213521</v>
@@ -19465,7 +19417,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.677137989754322</v>
+        <v>1.560816395535608</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.091379161844686</v>
@@ -19554,7 +19506,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.677158697549714</v>
+        <v>1.558101122937066</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.257166930187235</v>
@@ -19643,7 +19595,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.686242303606978</v>
+        <v>1.563481629174605</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.369235197690149</v>
@@ -19732,7 +19684,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.676194165889876</v>
+        <v>1.541835670744276</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.370156897698177</v>
@@ -19821,7 +19773,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.672750163381086</v>
+        <v>1.538557599867331</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.229053690040492</v>
@@ -19910,7 +19862,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.678001615295495</v>
+        <v>1.536328586727273</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.195353112901802</v>
@@ -19999,7 +19951,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.667654748370927</v>
+        <v>1.524954727588687</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.53264940800118</v>
@@ -20088,7 +20040,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.67881952730406</v>
+        <v>1.547545762932655</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.60511579927766</v>
@@ -20177,7 +20129,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.675239941388661</v>
+        <v>1.555077586256107</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.520718742950034</v>
@@ -20266,7 +20218,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.678930587075394</v>
+        <v>1.563929311498234</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.324883397636211</v>
@@ -20355,7 +20307,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.677012220253059</v>
+        <v>1.560703415735622</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.413494966880514</v>
@@ -20444,7 +20396,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.671343792630556</v>
+        <v>1.561551090118896</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.631829594286224</v>
@@ -20533,7 +20485,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.663337121363565</v>
+        <v>1.548772815308351</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.037099928005771</v>
@@ -20622,7 +20574,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.655570191615072</v>
+        <v>1.537761859720532</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.276414467039811</v>
@@ -20711,7 +20663,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.653693406681788</v>
+        <v>1.533751064442556</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.094850681840686</v>
@@ -20800,7 +20752,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.655123699110879</v>
+        <v>1.534907241441063</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.256751744092185</v>
@@ -20889,7 +20841,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.646347122159372</v>
+        <v>1.533015785572301</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.139165877324918</v>
@@ -20978,7 +20930,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.65075275461311</v>
+        <v>1.546036012249421</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.385001710632341</v>
@@ -21067,7 +21019,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.659731673196641</v>
+        <v>1.566980455104367</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.163093404510113</v>
@@ -21156,7 +21108,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.662725556569065</v>
+        <v>1.564900717721892</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.689766563587934</v>
@@ -21245,7 +21197,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.66055537394341</v>
+        <v>1.571471326279897</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.490807055225971</v>
@@ -21334,7 +21286,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.663377285285046</v>
+        <v>1.577848689473617</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.556365623358134</v>
@@ -21423,7 +21375,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.661497371698888</v>
+        <v>1.579653059481186</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.481615111865279</v>
@@ -21512,7 +21464,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.666246881919831</v>
+        <v>1.583343044364516</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.681720625345876</v>
@@ -21601,7 +21553,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.670574168123934</v>
+        <v>1.586455774369322</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.142706051999026</v>
@@ -21690,7 +21642,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.685888291767586</v>
+        <v>1.600670772731817</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.354656112664006</v>
@@ -21779,7 +21731,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.688485950546333</v>
+        <v>1.601313502418628</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.611027969708439</v>
@@ -21868,7 +21820,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.701758296121455</v>
+        <v>1.614613534932232</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.500265556926844</v>
@@ -21957,7 +21909,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.710407040911242</v>
+        <v>1.6236340334091</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.632532180367996</v>
@@ -22046,7 +21998,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.70883427718073</v>
+        <v>1.614704157949377</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.446544081672097</v>
@@ -22332,7 +22284,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.527862144953939</v>
+        <v>1.501973014733981</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.841699999112069</v>
@@ -22421,7 +22373,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.505500484704031</v>
+        <v>1.480007543137642</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.898067144714411</v>
@@ -22510,7 +22462,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.526073161296226</v>
+        <v>1.498418756739696</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.958110675090773</v>
@@ -22599,7 +22551,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.520815495571751</v>
+        <v>1.481462606028835</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.855517064973376</v>
@@ -22688,7 +22640,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.517776625905533</v>
+        <v>1.481054271317287</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.862222553562006</v>
@@ -22777,7 +22729,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.514550255083901</v>
+        <v>1.475759339231844</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.851906438109628</v>
@@ -22866,7 +22818,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.508822630461725</v>
+        <v>1.471390284529492</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.843333441776729</v>
@@ -22955,7 +22907,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.511971469692589</v>
+        <v>1.474322027273042</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.852756067402627</v>
@@ -23044,7 +22996,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.509155235147313</v>
+        <v>1.472621461774845</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.860697989910127</v>
@@ -23133,7 +23085,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.501673760578007</v>
+        <v>1.463845111925456</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.833459950561662</v>
@@ -23222,7 +23174,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.509020783542307</v>
+        <v>1.478585856906849</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.651699650705323</v>
@@ -23311,7 +23263,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.478808165626488</v>
+        <v>1.452931674801976</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.489755378191079</v>
@@ -23400,7 +23352,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.458382798657128</v>
+        <v>1.433238187420622</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.473335810320461</v>
@@ -23489,7 +23441,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.452255303179624</v>
+        <v>1.424093359842174</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.386777583071954</v>
@@ -23578,7 +23530,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.453321935714835</v>
+        <v>1.42813085668179</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.453326580516489</v>
@@ -23667,7 +23619,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.475011091167453</v>
+        <v>1.445114820002684</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.359458114385781</v>
@@ -23756,7 +23708,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.503145012211316</v>
+        <v>1.473949191478196</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.185279352015243</v>
@@ -23845,7 +23797,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.509574467168423</v>
+        <v>1.476180816621</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.386218740825425</v>
@@ -23934,7 +23886,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.521969661250271</v>
+        <v>1.493680444186131</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.366480474921209</v>
@@ -24023,7 +23975,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.525119923815046</v>
+        <v>1.497831395179812</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.410598047628429</v>
@@ -24112,7 +24064,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.53158804715006</v>
+        <v>1.498805593705294</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.260521842543359</v>
@@ -24201,7 +24153,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.546370534971922</v>
+        <v>1.507815772548331</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.301545161590991</v>
@@ -24290,7 +24242,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.552383076070743</v>
+        <v>1.509045771554614</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.328112507141946</v>
@@ -24379,7 +24331,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.557316767353637</v>
+        <v>1.510011523283809</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.382630693274602</v>
@@ -24468,7 +24420,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.553179883385662</v>
+        <v>1.500229688862283</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.321064304775592</v>
@@ -24557,7 +24509,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.541037825124303</v>
+        <v>1.490608898759715</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.262264376175203</v>
@@ -24646,7 +24598,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.590842994169504</v>
+        <v>1.523866669470211</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.120532542472877</v>
@@ -24735,7 +24687,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.62767499014235</v>
+        <v>1.549289143348816</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.197839191147787</v>
@@ -24824,7 +24776,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.660649443486125</v>
+        <v>1.582091231809335</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.121243646748749</v>
@@ -24913,7 +24865,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.653479449542245</v>
+        <v>1.580516613848393</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.461090229916989</v>
@@ -25002,7 +24954,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.660863857478473</v>
+        <v>1.58127327030968</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.134018383461032</v>
@@ -25091,7 +25043,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.665501334127411</v>
+        <v>1.584755612732224</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.333375043586805</v>
@@ -25180,7 +25132,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.669745657422998</v>
+        <v>1.591546246739298</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.213092479031903</v>
@@ -25269,7 +25221,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.649068596973026</v>
+        <v>1.568042123793563</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.138396472783605</v>
@@ -25358,7 +25310,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.632552161991772</v>
+        <v>1.550722113263381</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.132562155390617</v>
@@ -25447,7 +25399,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.631097392478749</v>
+        <v>1.547337734031129</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.191796626576736</v>
@@ -25536,7 +25488,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.62610218960873</v>
+        <v>1.536916601545624</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.403735067869007</v>
@@ -25625,7 +25577,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.618138309238411</v>
+        <v>1.536689641218487</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.391817572050688</v>
@@ -25714,7 +25666,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.619423188811223</v>
+        <v>1.541641183447403</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.107437644397867</v>
@@ -25803,7 +25755,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.61884950614752</v>
+        <v>1.543283836560805</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.41811503205829</v>
@@ -25892,7 +25844,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.620264908187977</v>
+        <v>1.539705301882179</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.420157904580177</v>
@@ -25981,7 +25933,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.618283771934264</v>
+        <v>1.541724623067978</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.442604990001375</v>
@@ -26070,7 +26022,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.605618799047419</v>
+        <v>1.531457279664321</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.484970151002048</v>
@@ -26159,7 +26111,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.603039664975</v>
+        <v>1.520784720607169</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.541265754489536</v>
@@ -26248,7 +26200,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.602925572429373</v>
+        <v>1.522042507827917</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.470655396930511</v>
@@ -26337,7 +26289,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.587140970348918</v>
+        <v>1.518955109635126</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.298186755313723</v>
@@ -26426,7 +26378,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.584607760777217</v>
+        <v>1.515130789387531</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.085239083663717</v>
@@ -26515,7 +26467,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.59773642043798</v>
+        <v>1.529899939753663</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.971665366592035</v>
@@ -26604,7 +26556,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.611158451236326</v>
+        <v>1.545349664101459</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.358180364758846</v>
@@ -26693,7 +26645,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.616651412130363</v>
+        <v>1.546584792112493</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.075825403507</v>
@@ -26782,7 +26734,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.612171991616973</v>
+        <v>1.550110495373514</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.046557369386751</v>
@@ -27068,7 +27020,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.375206465318544</v>
+        <v>1.351356900808354</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.873415559441169</v>
@@ -27157,7 +27109,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.36338870343285</v>
+        <v>1.340488544744437</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.885797414991274</v>
@@ -27246,7 +27198,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.37063203993309</v>
+        <v>1.345816707992298</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.855473009470563</v>
@@ -27335,7 +27287,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.368096541183951</v>
+        <v>1.336970063372444</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.846466773034427</v>
@@ -27424,7 +27376,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.359803435937398</v>
+        <v>1.33062867680109</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.901508282352051</v>
@@ -27513,7 +27465,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.359153025231166</v>
+        <v>1.329630165681564</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.909367149858805</v>
@@ -27602,7 +27554,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.372923694901212</v>
+        <v>1.342423929670051</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.841162903225478</v>
@@ -27691,7 +27643,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.381764044466093</v>
+        <v>1.345736600959691</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.846821197650174</v>
@@ -27780,7 +27732,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.393856184361262</v>
+        <v>1.355706798463416</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.825833653100519</v>
@@ -27869,7 +27821,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.402230123602186</v>
+        <v>1.364842739806838</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.840539537320996</v>
@@ -27958,7 +27910,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.412347692601611</v>
+        <v>1.38307368939488</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.540030490260764</v>
@@ -28047,7 +27999,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.426206015595408</v>
+        <v>1.403507632835153</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.535466161091256</v>
@@ -28136,7 +28088,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.433847881064327</v>
+        <v>1.407973680628228</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.520701362176805</v>
@@ -28225,7 +28177,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.431543553866225</v>
+        <v>1.398122998694833</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.302504031266176</v>
@@ -28314,7 +28266,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.449970586558469</v>
+        <v>1.413840417604389</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.358194394891547</v>
@@ -28403,7 +28355,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.453649046745736</v>
+        <v>1.421378688271576</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.659863787606849</v>
@@ -28492,7 +28444,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.471732715497631</v>
+        <v>1.435665790554087</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.694288138410516</v>
@@ -28581,7 +28533,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.477904033650255</v>
+        <v>1.443091797884794</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.66227423077239</v>
@@ -28670,7 +28622,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.499661956251132</v>
+        <v>1.466673262349967</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.741698426168358</v>
@@ -28759,7 +28711,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.500336085364226</v>
+        <v>1.468546489014574</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.768689543623787</v>
@@ -28848,7 +28800,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.499304933388155</v>
+        <v>1.471277813803851</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.678084608712037</v>
@@ -28937,7 +28889,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.506167060664865</v>
+        <v>1.479574676848185</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.512591841239874</v>
@@ -29026,7 +28978,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.529349386839987</v>
+        <v>1.495532342127055</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.663823632080925</v>
@@ -29115,7 +29067,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.527396452771286</v>
+        <v>1.491995791186308</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.636296406063398</v>
@@ -29204,7 +29156,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.51846585652359</v>
+        <v>1.47352168561049</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.794002703393507</v>
@@ -29293,7 +29245,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.515956205566952</v>
+        <v>1.469689413488906</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.717684914083586</v>
@@ -29382,7 +29334,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.520669065909</v>
+        <v>1.465133900606595</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.702392155167048</v>
@@ -29471,7 +29423,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.522384629769162</v>
+        <v>1.465113597165867</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.834536055952151</v>
@@ -29560,7 +29512,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.524225673645636</v>
+        <v>1.475244017210179</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.699902077758882</v>
@@ -29649,7 +29601,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.523161092320761</v>
+        <v>1.473851921283735</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.545958720677093</v>
@@ -29738,7 +29690,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.521715551913661</v>
+        <v>1.469316383638851</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.540445050555185</v>
@@ -29827,7 +29779,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.523593674641404</v>
+        <v>1.468389681061076</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.705826070817561</v>
@@ -29916,7 +29868,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.524071227419868</v>
+        <v>1.470614778344401</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.533219882855347</v>
@@ -30005,7 +29957,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.497182908986061</v>
+        <v>1.439955322441258</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.635605141922444</v>
@@ -30094,7 +30046,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.492639904830533</v>
+        <v>1.437903853879676</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.463810517897067</v>
@@ -30183,7 +30135,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.499029068635372</v>
+        <v>1.434228153575686</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.362705082892468</v>
@@ -30272,7 +30224,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.485779752120955</v>
+        <v>1.412364025870588</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.510012666391789</v>
@@ -30361,7 +30313,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.474917952954925</v>
+        <v>1.415093684705948</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.4956541046204</v>
@@ -30450,7 +30402,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.497284985082159</v>
+        <v>1.439715794512735</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.247502186034748</v>
@@ -30539,7 +30491,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.489887280072511</v>
+        <v>1.437592134620229</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.414393690969043</v>
@@ -30628,7 +30580,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.491663494935441</v>
+        <v>1.437507474622352</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.522993892483757</v>
@@ -30717,7 +30669,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.503937130354911</v>
+        <v>1.446470395217778</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.527545296138646</v>
@@ -30806,7 +30758,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.522544734797006</v>
+        <v>1.461156285171006</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.383527655035372</v>
@@ -30895,7 +30847,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.524943175906597</v>
+        <v>1.46072744210029</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.636755665316606</v>
@@ -30984,7 +30936,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.51681608923305</v>
+        <v>1.463681453572433</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.733769792177468</v>
@@ -31073,7 +31025,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.521395427148061</v>
+        <v>1.468693405983623</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.378606291539942</v>
@@ -31162,7 +31114,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.505523986444417</v>
+        <v>1.459924496422015</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.463985510495668</v>
@@ -31251,7 +31203,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.513867984240725</v>
+        <v>1.460110525008659</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.325673932629686</v>
@@ -31340,7 +31292,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.542597451298266</v>
+        <v>1.489520395038552</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.571543526763274</v>
@@ -31429,7 +31381,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.544728866889387</v>
+        <v>1.486170293370448</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.536913305757759</v>
@@ -31518,7 +31470,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.543295124459484</v>
+        <v>1.483110061444572</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.682459199852516</v>
